--- a/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_ON.xlsx
+++ b/csv/model/CIMS_calibration_MS/formula_CIMS_calibration_MS_ON.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_calibration_MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6C481D0-0EA1-4DD3-A4E2-00BFF04D5183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBABF83D-2999-4C44-AD39-83D3AFED6AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54BC0BBA-39A0-4C91-9BBF-7EA537116E88}"/>
+    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{0738C285-280C-4B7B-8577-C9B44E813910}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1033,19 +1030,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ON"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,21 +1348,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B1C73C-E9B9-4D7A-972D-0EA18EAA254F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810187EA-D8AA-43A4-967E-2778FB007CF4}">
   <dimension ref="A1:X244"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1511,7 +1495,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1570,7 +1554,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1672,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1731,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1790,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1865,7 +1849,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1924,7 +1908,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +1967,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2042,7 +2026,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2101,7 +2085,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2160,7 +2144,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2219,7 +2203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2262,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2337,7 +2321,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2396,7 +2380,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2455,7 +2439,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2514,7 +2498,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2573,7 +2557,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2616,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2691,7 +2675,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2750,7 +2734,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2809,7 +2793,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2868,7 +2852,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2927,7 +2911,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2986,7 +2970,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -3045,7 +3029,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -3104,7 +3088,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -3163,7 +3147,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -3222,7 +3206,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -3281,7 +3265,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3340,7 +3324,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3399,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3458,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -3517,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -3576,7 +3560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3635,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3694,7 +3678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3753,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -3812,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -3871,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3930,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -3989,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -4048,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -4107,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -4166,7 +4150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -4225,7 +4209,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>90</v>
       </c>
@@ -4284,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -4343,7 +4327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -4402,7 +4386,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -4461,7 +4445,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -4520,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>102</v>
       </c>
@@ -4579,7 +4563,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>105</v>
       </c>
@@ -4638,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -4697,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -4756,7 +4740,7 @@
         <v>8.9169011000000006E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -4815,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -4874,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -4933,7 +4917,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -4992,7 +4976,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -5051,7 +5035,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -5110,7 +5094,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -5169,7 +5153,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -5228,7 +5212,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>116</v>
       </c>
@@ -5287,7 +5271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>118</v>
       </c>
@@ -5346,7 +5330,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -5405,7 +5389,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -5464,7 +5448,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>119</v>
       </c>
@@ -5523,7 +5507,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -5582,7 +5566,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -5641,7 +5625,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -5700,7 +5684,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -5759,7 +5743,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -5818,7 +5802,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -5877,7 +5861,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -5936,7 +5920,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>125</v>
       </c>
@@ -5995,7 +5979,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -6054,7 +6038,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>127</v>
       </c>
@@ -6113,7 +6097,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -6172,7 +6156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -6231,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>134</v>
       </c>
@@ -6290,7 +6274,7 @@
         <v>0.27422680412371098</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -6349,7 +6333,7 @@
         <v>0.27371134020618498</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -6408,7 +6392,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -6467,7 +6451,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>140</v>
       </c>
@@ -6526,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -6585,7 +6569,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>142</v>
       </c>
@@ -6644,7 +6628,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>146</v>
       </c>
@@ -6703,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>146</v>
       </c>
@@ -6762,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>146</v>
       </c>
@@ -6821,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>148</v>
       </c>
@@ -6880,7 +6864,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -6939,7 +6923,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>149</v>
       </c>
@@ -6998,7 +6982,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -7057,7 +7041,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>149</v>
       </c>
@@ -7116,7 +7100,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -7175,7 +7159,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>150</v>
       </c>
@@ -7234,7 +7218,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>150</v>
       </c>
@@ -7293,7 +7277,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>151</v>
       </c>
@@ -7352,7 +7336,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>151</v>
       </c>
@@ -7411,7 +7395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>151</v>
       </c>
@@ -7470,7 +7454,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>152</v>
       </c>
@@ -7529,7 +7513,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>153</v>
       </c>
@@ -7588,7 +7572,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>154</v>
       </c>
@@ -7647,7 +7631,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -7706,7 +7690,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>156</v>
       </c>
@@ -7765,7 +7749,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>157</v>
       </c>
@@ -7824,7 +7808,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>158</v>
       </c>
@@ -7883,7 +7867,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>161</v>
       </c>
@@ -7942,7 +7926,7 @@
         <v>0.145455</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -8001,7 +7985,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>161</v>
       </c>
@@ -8060,7 +8044,7 @@
         <v>0.24727299999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>161</v>
       </c>
@@ -8119,7 +8103,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>161</v>
       </c>
@@ -8178,7 +8162,7 @@
         <v>6.1817999999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>161</v>
       </c>
@@ -8237,7 +8221,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>164</v>
       </c>
@@ -8296,7 +8280,7 @@
         <v>0.145455</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -8355,7 +8339,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>164</v>
       </c>
@@ -8414,7 +8398,7 @@
         <v>0.24727299999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>164</v>
       </c>
@@ -8473,7 +8457,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>164</v>
       </c>
@@ -8532,7 +8516,7 @@
         <v>6.1817999999999998E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>164</v>
       </c>
@@ -8591,7 +8575,7 @@
         <v>6.1816999999999997E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -8650,7 +8634,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>169</v>
       </c>
@@ -8709,7 +8693,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>172</v>
       </c>
@@ -8768,7 +8752,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -8827,7 +8811,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>176</v>
       </c>
@@ -8886,7 +8870,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -8945,7 +8929,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>177</v>
       </c>
@@ -9004,7 +8988,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>177</v>
       </c>
@@ -9063,7 +9047,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>178</v>
       </c>
@@ -9122,7 +9106,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>179</v>
       </c>
@@ -9181,7 +9165,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>180</v>
       </c>
@@ -9240,7 +9224,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>181</v>
       </c>
@@ -9299,7 +9283,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -9358,7 +9342,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>183</v>
       </c>
@@ -9417,7 +9401,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>184</v>
       </c>
@@ -9476,7 +9460,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>185</v>
       </c>
@@ -9535,7 +9519,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>186</v>
       </c>
@@ -9594,7 +9578,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>187</v>
       </c>
@@ -9653,7 +9637,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>188</v>
       </c>
@@ -9712,7 +9696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>192</v>
       </c>
@@ -9771,7 +9755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>195</v>
       </c>
@@ -9830,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>195</v>
       </c>
@@ -9889,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>195</v>
       </c>
@@ -9948,7 +9932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>195</v>
       </c>
@@ -10007,7 +9991,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>195</v>
       </c>
@@ -10066,7 +10050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>195</v>
       </c>
@@ -10125,7 +10109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>195</v>
       </c>
@@ -10184,7 +10168,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>198</v>
       </c>
@@ -10243,7 +10227,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>198</v>
       </c>
@@ -10302,7 +10286,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>199</v>
       </c>
@@ -10361,7 +10345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>199</v>
       </c>
@@ -10420,7 +10404,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>200</v>
       </c>
@@ -10479,7 +10463,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>200</v>
       </c>
@@ -10538,7 +10522,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>200</v>
       </c>
@@ -10597,7 +10581,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>201</v>
       </c>
@@ -10656,7 +10640,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>201</v>
       </c>
@@ -10715,7 +10699,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>201</v>
       </c>
@@ -10774,7 +10758,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>202</v>
       </c>
@@ -10833,7 +10817,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>203</v>
       </c>
@@ -10892,7 +10876,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>204</v>
       </c>
@@ -10951,7 +10935,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>205</v>
       </c>
@@ -11010,7 +10994,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>206</v>
       </c>
@@ -11069,7 +11053,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>207</v>
       </c>
@@ -11128,7 +11112,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>208</v>
       </c>
@@ -11187,7 +11171,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -11246,7 +11230,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>210</v>
       </c>
@@ -11305,7 +11289,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>212</v>
       </c>
@@ -11364,7 +11348,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>212</v>
       </c>
@@ -11423,7 +11407,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>213</v>
       </c>
@@ -11482,7 +11466,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>217</v>
       </c>
@@ -11541,7 +11525,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -11600,7 +11584,7 @@
         <v>1.6667000000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>222</v>
       </c>
@@ -11659,7 +11643,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>225</v>
       </c>
@@ -11718,7 +11702,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>225</v>
       </c>
@@ -11777,7 +11761,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>228</v>
       </c>
@@ -11836,7 +11820,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>228</v>
       </c>
@@ -11895,7 +11879,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>228</v>
       </c>
@@ -11954,7 +11938,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>232</v>
       </c>
@@ -12013,7 +11997,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>232</v>
       </c>
@@ -12072,7 +12056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>232</v>
       </c>
@@ -12131,7 +12115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>232</v>
       </c>
@@ -12190,7 +12174,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>235</v>
       </c>
@@ -12249,7 +12233,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>235</v>
       </c>
@@ -12308,7 +12292,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>235</v>
       </c>
@@ -12367,7 +12351,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>236</v>
       </c>
@@ -12426,7 +12410,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>236</v>
       </c>
@@ -12485,7 +12469,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>237</v>
       </c>
@@ -12544,7 +12528,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>237</v>
       </c>
@@ -12603,7 +12587,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>237</v>
       </c>
@@ -12662,7 +12646,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>238</v>
       </c>
@@ -12721,7 +12705,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>238</v>
       </c>
@@ -12780,7 +12764,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>238</v>
       </c>
@@ -12839,7 +12823,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -12898,7 +12882,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>240</v>
       </c>
@@ -12957,7 +12941,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>241</v>
       </c>
@@ -13016,7 +13000,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -13075,7 +13059,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>243</v>
       </c>
@@ -13134,7 +13118,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>244</v>
       </c>
@@ -13193,7 +13177,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>245</v>
       </c>
@@ -13252,7 +13236,7 @@
         <v>0.90500000000000003</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>245</v>
       </c>
@@ -13311,7 +13295,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>245</v>
       </c>
@@ -13370,7 +13354,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>245</v>
       </c>
@@ -13429,7 +13413,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>247</v>
       </c>
@@ -13488,7 +13472,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>247</v>
       </c>
@@ -13547,7 +13531,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>247</v>
       </c>
@@ -13606,7 +13590,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>247</v>
       </c>
@@ -13665,7 +13649,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>249</v>
       </c>
@@ -13724,7 +13708,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>249</v>
       </c>
@@ -13783,7 +13767,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>249</v>
       </c>
@@ -13842,7 +13826,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>249</v>
       </c>
@@ -13901,7 +13885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>251</v>
       </c>
@@ -13960,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>254</v>
       </c>
@@ -14019,7 +14003,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>257</v>
       </c>
@@ -14078,7 +14062,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>257</v>
       </c>
@@ -14137,7 +14121,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>257</v>
       </c>
@@ -14196,7 +14180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>262</v>
       </c>
@@ -14255,7 +14239,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>266</v>
       </c>
@@ -14314,7 +14298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>269</v>
       </c>
@@ -14373,7 +14357,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>269</v>
       </c>
@@ -14432,7 +14416,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>271</v>
       </c>
@@ -14461,47 +14445,47 @@
         <v>0.02</v>
       </c>
       <c r="N223">
-        <f t="shared" ref="N223:W226" si="0">M223</f>
+        <f t="shared" ref="N223:W226" ca="1" si="0">M223</f>
         <v>0.02</v>
       </c>
       <c r="O223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="P223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="Q223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="R223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="S223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="T223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="U223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="V223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
       <c r="W223">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>271</v>
       </c>
@@ -14530,47 +14514,47 @@
         <v>0.05</v>
       </c>
       <c r="N224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="O224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="P224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="Q224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="R224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="S224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="T224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="U224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="V224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
       <c r="W224">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>271</v>
       </c>
@@ -14599,47 +14583,47 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W225">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>271</v>
       </c>
@@ -14668,47 +14652,47 @@
         <v>0</v>
       </c>
       <c r="N226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="O226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="P226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="Q226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="R226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="S226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="T226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="U226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="V226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="W226">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>276</v>
       </c>
@@ -14767,7 +14751,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>279</v>
       </c>
@@ -14826,7 +14810,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>283</v>
       </c>
@@ -14885,7 +14869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>286</v>
       </c>
@@ -14914,50 +14898,50 @@
         <v>0</v>
       </c>
       <c r="N230">
-        <f>(0.002*0.87)/(0.002*0.87+(1-0.002))</f>
+        <f ca="1">(0.002*0.87)/(0.002*0.87+(1-0.002))</f>
         <v>1.7404525176545902E-3</v>
       </c>
       <c r="O230">
-        <f>(0.005*0.87)/(0.005*0.87+(1-0.005))</f>
+        <f ca="1">(0.005*0.87)/(0.005*0.87+(1-0.005))</f>
         <v>4.3528293390703958E-3</v>
       </c>
       <c r="P230">
-        <f>(0.01*0.87)/(0.01*0.87+(1-0.01))</f>
+        <f ca="1">(0.01*0.87)/(0.01*0.87+(1-0.01))</f>
         <v>8.7113247221387788E-3</v>
       </c>
-      <c r="Q230" t="e">
-        <f>MAX([1]ON!R$5,(0.04*0.87)/(0.04*0.87+(1-0.04)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R230" t="e">
-        <f>MAX([1]ON!S$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),Q230*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S230" t="e">
-        <f>MAX([1]ON!T$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),R230*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T230" t="e">
-        <f>MAX([1]ON!U$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),S230*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U230" t="e">
-        <f>MAX([1]ON!V$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),T230*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V230" t="e">
-        <f>MAX([1]ON!W$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),U230*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W230" t="e">
-        <f>MAX([1]ON!X$5,MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),V230*1.1))</f>
-        <v>#REF!</v>
+      <c r="Q230">
+        <f ca="1">(0.04*0.87)/(0.04*0.87+(1-0.04))</f>
+        <v>3.4981905910735828E-2</v>
+      </c>
+      <c r="R230">
+        <f ca="1">MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),Q230*1.1)</f>
+        <v>3.8480096501809412E-2</v>
+      </c>
+      <c r="S230">
+        <f t="shared" ref="S230:W230" ca="1" si="1">MIN((0.2*0.67)/(0.2*0.67+(1-0.2)),R230*1.1)</f>
+        <v>4.2328106151990355E-2</v>
+      </c>
+      <c r="T230">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.6560916767189396E-2</v>
+      </c>
+      <c r="U230">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1217008443908342E-2</v>
+      </c>
+      <c r="V230">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6338709288299184E-2</v>
+      </c>
+      <c r="W230">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1972580217129106E-2</v>
       </c>
       <c r="X230" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>290</v>
       </c>
@@ -14983,54 +14967,54 @@
         <v>20</v>
       </c>
       <c r="M231">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
+        <f ca="1">(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
         <v>1.3489027582041475E-2</v>
       </c>
       <c r="N231">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
+        <f ca="1">(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
         <v>2.7158492095662748E-2</v>
       </c>
       <c r="O231">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
+        <f ca="1">(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
         <v>3.4062023385866808E-2</v>
       </c>
       <c r="P231">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
+        <f ca="1">(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
         <v>4.1012038359518464E-2</v>
       </c>
-      <c r="Q231" t="e">
-        <f>MAX([1]ON!R$6,(0.1*0.67)/(0.1*0.67+(1-0.1)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R231" t="e">
-        <f>MAX([1]ON!S$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),Q231*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S231" t="e">
-        <f>MAX([1]ON!T$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),R231*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T231" t="e">
-        <f>MAX([1]ON!U$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),S231*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U231" t="e">
-        <f>MAX([1]ON!V$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),T231*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V231" t="e">
-        <f>MAX([1]ON!W$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),U231*1.1))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W231" t="e">
-        <f>MAX([1]ON!X$6,MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),V231*1.1))</f>
-        <v>#REF!</v>
+      <c r="Q231">
+        <f ca="1">(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
+        <v>6.9286452947259561E-2</v>
+      </c>
+      <c r="R231">
+        <f ca="1">MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),Q231*1.1)</f>
+        <v>7.6215098241985524E-2</v>
+      </c>
+      <c r="S231">
+        <f t="shared" ref="S231:W231" ca="1" si="2">MIN((0.15*0.67)/(0.15*0.67+(1-0.15)),R231*1.1)</f>
+        <v>8.3836608066184079E-2</v>
+      </c>
+      <c r="T231">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2220268872802491E-2</v>
+      </c>
+      <c r="U231">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10144229576008275</v>
+      </c>
+      <c r="V231">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10573382430299842</v>
+      </c>
+      <c r="W231">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.10573382430299842</v>
       </c>
       <c r="X231" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>292</v>
       </c>
@@ -15056,54 +15040,54 @@
         <v>20</v>
       </c>
       <c r="M232">
-        <f>(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
+        <f ca="1">(0.02*0.67)/(0.02*0.67+(1-0.02))</f>
         <v>1.3489027582041475E-2</v>
       </c>
       <c r="N232">
-        <f>(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
+        <f ca="1">(0.04*0.67)/(0.04*0.67+(1-0.04))</f>
         <v>2.7158492095662748E-2</v>
       </c>
       <c r="O232">
-        <f>(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
+        <f ca="1">(0.05*0.67)/(0.05*0.67+(1-0.05))</f>
         <v>3.4062023385866808E-2</v>
       </c>
       <c r="P232">
-        <f>(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
+        <f ca="1">(0.06*0.67)/(0.06*0.67+(1-0.06))</f>
         <v>4.1012038359518464E-2</v>
       </c>
-      <c r="Q232" t="e">
-        <f>MAX([1]ON!R$7,(0.1*0.67)/(0.1*0.67+(1-0.1)))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R232" t="e">
-        <f>MAX([1]ON!S$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),Q232*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S232" t="e">
-        <f>MAX([1]ON!T$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),R232*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T232" t="e">
-        <f>MAX([1]ON!U$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),S232*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U232" t="e">
-        <f>MAX([1]ON!V$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),T232*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V232" t="e">
-        <f>MAX([1]ON!W$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),U232*2))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W232" t="e">
-        <f>MAX([1]ON!X$7,MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),V232*2))</f>
-        <v>#REF!</v>
+      <c r="Q232">
+        <f ca="1">(0.1*0.67)/(0.1*0.67+(1-0.1))</f>
+        <v>6.9286452947259561E-2</v>
+      </c>
+      <c r="R232">
+        <f ca="1">MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),Q232*2)</f>
+        <v>0.13857290589451912</v>
+      </c>
+      <c r="S232">
+        <f t="shared" ref="S232:W232" ca="1" si="3">MIN((0.85*0.67)/(0.85*0.67+(1-0.85)),R232*2)</f>
+        <v>0.27714581178903824</v>
+      </c>
+      <c r="T232">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.55429162357807649</v>
+      </c>
+      <c r="U232">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79152189020152885</v>
+      </c>
+      <c r="V232">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79152189020152885</v>
+      </c>
+      <c r="W232">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.79152189020152885</v>
       </c>
       <c r="X232" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>294</v>
       </c>
@@ -15162,7 +15146,7 @@
         <v>0.56385600000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>298</v>
       </c>
@@ -15221,7 +15205,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>302</v>
       </c>
@@ -15283,7 +15267,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>305</v>
       </c>
@@ -15345,7 +15329,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>306</v>
       </c>
@@ -15407,7 +15391,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>307</v>
       </c>
@@ -15469,7 +15453,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>308</v>
       </c>
@@ -15531,7 +15515,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>309</v>
       </c>
@@ -15593,7 +15577,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>310</v>
       </c>
@@ -15655,7 +15639,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>311</v>
       </c>
@@ -15717,7 +15701,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>312</v>
       </c>
@@ -15779,7 +15763,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>313</v>
       </c>
